--- a/docs/setup.xlsx
+++ b/docs/setup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isolutionsch-my.sharepoint.com/personal/damien_bowden_isolutions_ch/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\git\damienbod\AzureIoTHubDps\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="306" documentId="8_{D60EB3F2-F915-4580-986C-0EC5F316908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A805304-3686-4C6C-B53A-925320C7A819}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BACFF-5A81-4985-A155-7E7EA2FE6758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{7B83095D-3CC1-48A0-9E0E-9EBCB29FDD68}"/>
   </bookViews>
@@ -103,9 +103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -121,7 +121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4752975" y="209551"/>
-          <a:ext cx="2300288" cy="4848224"/>
+          <a:ext cx="2085975" cy="4571999"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -148,7 +148,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Azure</a:t>
+            <a:t>         Azure</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -163,15 +163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>219048</xdr:colOff>
+      <xdr:colOff>19019</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:rowOff>33339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>357163</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180971</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -186,8 +186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639148" y="204788"/>
-          <a:ext cx="2081215" cy="4872037"/>
+          <a:off x="8439119" y="214314"/>
+          <a:ext cx="1457352" cy="4548187"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -214,7 +214,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Azure</a:t>
+            <a:t>     Azure</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -228,16 +228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133323</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342864</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400024</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -260,8 +260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9201123" y="733424"/>
-          <a:ext cx="914401" cy="914401"/>
+          <a:off x="8762964" y="676275"/>
+          <a:ext cx="747712" cy="747712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -273,15 +273,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>147641</xdr:colOff>
+      <xdr:colOff>171464</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95252</xdr:rowOff>
+      <xdr:rowOff>80966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19062</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>176223</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -304,8 +304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5329241" y="638177"/>
-          <a:ext cx="1166821" cy="1166821"/>
+          <a:off x="5353064" y="623891"/>
+          <a:ext cx="890586" cy="890586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -317,15 +317,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>290508</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71428</xdr:rowOff>
+      <xdr:colOff>90478</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>481014</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138109</xdr:rowOff>
+      <xdr:colOff>280984</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -348,7 +348,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7415208" y="2243128"/>
+          <a:off x="7215178" y="2100256"/>
           <a:ext cx="838206" cy="790581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -361,15 +361,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>290508</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104769</xdr:rowOff>
+      <xdr:colOff>90478</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -386,9 +386,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7053263" y="2633663"/>
-          <a:ext cx="361945" cy="4756"/>
+        <a:xfrm flipV="1">
+          <a:off x="6838950" y="2495547"/>
+          <a:ext cx="376228" cy="4"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -417,15 +417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>481014</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104769</xdr:rowOff>
+      <xdr:colOff>280984</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>219048</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
+      <xdr:colOff>19019</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142872</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -442,9 +442,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8253414" y="2638419"/>
-          <a:ext cx="385734" cy="2388"/>
+        <a:xfrm flipV="1">
+          <a:off x="8053384" y="2488408"/>
+          <a:ext cx="385735" cy="7139"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -473,15 +473,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419106</xdr:colOff>
+      <xdr:colOff>271473</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>481015</xdr:colOff>
+      <xdr:colOff>333382</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>125456</xdr:rowOff>
+      <xdr:rowOff>130219</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -504,7 +504,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600706" y="2066925"/>
+          <a:off x="5453073" y="2071688"/>
           <a:ext cx="709609" cy="773156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -517,13 +517,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>366711</xdr:colOff>
+      <xdr:colOff>214315</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>538409</xdr:colOff>
+      <xdr:colOff>386013</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>157161</xdr:rowOff>
     </xdr:to>
@@ -548,7 +548,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5548311" y="3200399"/>
+          <a:off x="5395915" y="3200399"/>
           <a:ext cx="819398" cy="757237"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -560,14 +560,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>352417</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419075</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>376234</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442892</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
@@ -592,7 +592,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9420217" y="3914771"/>
+          <a:off x="8839175" y="3914771"/>
           <a:ext cx="671517" cy="614367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -606,14 +606,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>423863</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>628641</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -628,8 +628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2366963" y="2005012"/>
-          <a:ext cx="852478" cy="2624138"/>
+          <a:off x="2366963" y="1733551"/>
+          <a:ext cx="852478" cy="3038474"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -670,16 +670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23817</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419106</xdr:colOff>
+      <xdr:colOff>271473</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>100828</xdr:rowOff>
+      <xdr:rowOff>105591</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -696,8 +696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3214688" y="2452688"/>
-          <a:ext cx="2386018" cy="815"/>
+          <a:off x="3262317" y="2452688"/>
+          <a:ext cx="2190756" cy="5578"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -725,14 +725,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>633413</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23817</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>366711</xdr:colOff>
+      <xdr:colOff>214315</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>140493</xdr:rowOff>
     </xdr:to>
@@ -751,8 +751,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3224213" y="3567113"/>
-          <a:ext cx="2324098" cy="11905"/>
+          <a:off x="3262317" y="3576638"/>
+          <a:ext cx="2133598" cy="2380"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -780,14 +780,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>633413</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38223</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
@@ -804,12 +804,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3224213" y="3957636"/>
-          <a:ext cx="2643310" cy="266702"/>
+          <a:off x="3271838" y="3967163"/>
+          <a:ext cx="2409825" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 100088"/>
+            <a:gd name="adj1" fmla="val 99802"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="31750">
@@ -836,15 +836,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>100014</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>538165</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419075</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>64293</xdr:rowOff>
+      <xdr:rowOff>59530</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -855,16 +855,18 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6019800" y="3990976"/>
-          <a:ext cx="3586165" cy="235742"/>
+          <a:off x="5929314" y="4014788"/>
+          <a:ext cx="2909861" cy="207167"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -66"/>
+            <a:gd name="adj1" fmla="val -246"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="31750">
@@ -1092,16 +1094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161920</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609590</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>176218</xdr:rowOff>
+      <xdr:rowOff>23820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>633409</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123831</xdr:rowOff>
+      <xdr:colOff>433379</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152408</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1116,7 +1118,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7286620" y="1804993"/>
+          <a:off x="7086590" y="1652595"/>
           <a:ext cx="1119189" cy="309563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1156,14 +1158,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>126211</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624014</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>125456</xdr:rowOff>
+      <xdr:rowOff>130219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>128710</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>626278</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -1182,9 +1184,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5955511" y="2840081"/>
-          <a:ext cx="2499" cy="360318"/>
+        <a:xfrm flipV="1">
+          <a:off x="5805614" y="2844844"/>
+          <a:ext cx="2264" cy="355555"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1513,7 +1515,7 @@
   <dimension ref="C1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
